--- a/src/main/resources/excelTemp/planningTempInit-test.xlsx
+++ b/src/main/resources/excelTemp/planningTempInit-test.xlsx
@@ -1954,7 +1954,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.6" customHeight="1" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1997,10 +1997,13 @@
       <c r="F2" s="19"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 B2:B1048576">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>月份波段表!$A$1:$A$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>大类</formula1>

--- a/src/main/resources/excelTemp/planningTempInit-test.xlsx
+++ b/src/main/resources/excelTemp/planningTempInit-test.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="770"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="20" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="19" r:id="rId3"/>
-    <sheet name="月份波段表" sheetId="21" state="hidden" r:id="rId4"/>
+    <sheet name="月份表" sheetId="21" state="hidden" r:id="rId4"/>
+    <sheet name="波段表" sheetId="22" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="产品线">Sheet3!$A$1:$BR$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="275">
   <si>
     <t>特殊需求</t>
   </si>
@@ -39,7 +40,22 @@
     <t>重点款</t>
   </si>
   <si>
-    <t>月份+波段</t>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>波段</t>
+  </si>
+  <si>
+    <t>旧款号</t>
+  </si>
+  <si>
+    <t>款式风格</t>
+  </si>
+  <si>
+    <t>四级类目</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>大类</t>
@@ -1100,7 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8E8E8"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFE8E8E8"/>
       </patternFill>
     </fill>
@@ -1951,24 +1967,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.6" customHeight="1" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.6" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.3583333333333" style="11" customWidth="1"/>
     <col min="2" max="2" width="14.4416666666667" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.7416666666667" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.7166666666667" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.7833333333333" style="13" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="14"/>
+    <col min="4" max="9" width="14.7166666666667" style="13" customWidth="1"/>
+    <col min="10" max="10" width="17.7833333333333" style="13" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" s="9" customFormat="1" ht="14.25" spans="1:11">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1987,32 +2003,55 @@
       <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="14.25" spans="1:6">
+    <row r="2" s="10" customFormat="1" ht="14.25" spans="1:11">
       <c r="A2" s="18"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1"/>
+  <dataValidations count="7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 D1 E$1:E$1048576 F$1:F$1048576 G$1:G$1048576 H$1:H$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 B2:B1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>月份波段表!$A$1:$A$1000</formula1>
+      <formula1>月份表!$A$1:$A$1000</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>波段表!$A$1:$A$4000</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>大类</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>INDIRECT($D2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>INDIRECT($I2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>OFFSET(子产品线,,MATCH($E2,产品线,)-1,COUNTA(OFFSET(子产品线,,MATCH($E2,产品线,)-1,65535)))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>OFFSET(子产品线,,MATCH($J2,产品线,)-1,COUNTA(OFFSET(子产品线,,MATCH($J2,产品线,)-1,65535)))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2034,253 +2073,253 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="3:8">
       <c r="C10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="3:8">
       <c r="C11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="3:8">
       <c r="C12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2356,193 +2395,193 @@
   <sheetData>
     <row r="1" ht="15" spans="1:70">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="BL1" s="3"/>
       <c r="BM1" s="3"/>
@@ -2554,193 +2593,193 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="AR2" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AW2" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BA2" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="BF2" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="BI2" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BL2" s="6"/>
       <c r="BM2" s="6"/>
@@ -2752,165 +2791,165 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="6"/>
       <c r="AG3" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AT3" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AU3" s="6" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="BB3" s="6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BC3" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="BD3" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="BE3" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BF3" s="6" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="BG3" s="6"/>
       <c r="BH3" s="6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="BK3" s="6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="BL3" s="6"/>
       <c r="BM3" s="6"/>
@@ -2923,13 +2962,13 @@
     <row r="4" spans="1:70">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2937,39 +2976,39 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
@@ -2977,81 +3016,81 @@
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AQ4" s="6"/>
       <c r="AR4" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AS4" s="6"/>
       <c r="AT4" s="6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AU4" s="6"/>
       <c r="AV4" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AW4" s="6" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AX4" s="6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
       <c r="BA4" s="6" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="BB4" s="6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="BC4" s="6"/>
       <c r="BD4" s="6" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="BE4" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="BG4" s="6"/>
       <c r="BH4" s="6" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BK4" s="6"/>
       <c r="BL4" s="6"/>
@@ -3066,10 +3105,10 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -3077,37 +3116,37 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
@@ -3115,53 +3154,53 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AS5" s="6"/>
       <c r="AT5" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AU5" s="6"/>
       <c r="AV5" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AW5" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AX5" s="6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AY5" s="6"/>
       <c r="AZ5" s="6"/>
@@ -3171,15 +3210,15 @@
       <c r="BD5" s="6"/>
       <c r="BE5" s="6"/>
       <c r="BF5" s="6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="BG5" s="6"/>
       <c r="BH5" s="6" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="BK5" s="6"/>
       <c r="BL5" s="6"/>
@@ -3201,29 +3240,29 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -3235,33 +3274,33 @@
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
       <c r="AP6" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AS6" s="6"/>
       <c r="AT6" s="6"/>
@@ -3279,11 +3318,11 @@
       <c r="BF6" s="6"/>
       <c r="BG6" s="6"/>
       <c r="BH6" s="6" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="6" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="BK6" s="6"/>
       <c r="BL6" s="6"/>
@@ -3305,12 +3344,12 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -3329,7 +3368,7 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
@@ -3337,7 +3376,7 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AK7" s="6"/>
       <c r="AL7" s="6"/>
@@ -3345,7 +3384,7 @@
       <c r="AN7" s="6"/>
       <c r="AO7" s="6"/>
       <c r="AP7" s="6" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="6"/>
@@ -3365,11 +3404,11 @@
       <c r="BF7" s="6"/>
       <c r="BG7" s="6"/>
       <c r="BH7" s="6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="BK7" s="6"/>
       <c r="BL7" s="6"/>
@@ -3394,7 +3433,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -3413,7 +3452,7 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
@@ -3421,7 +3460,7 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
@@ -3429,7 +3468,7 @@
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="6" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
@@ -3449,7 +3488,7 @@
       <c r="BF8" s="6"/>
       <c r="BG8" s="6"/>
       <c r="BH8" s="6" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="6"/>
@@ -3476,7 +3515,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -3501,7 +3540,7 @@
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AK9" s="6"/>
       <c r="AL9" s="6"/>
@@ -3527,7 +3566,7 @@
       <c r="BF9" s="6"/>
       <c r="BG9" s="6"/>
       <c r="BH9" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
@@ -3554,7 +3593,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -3579,7 +3618,7 @@
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
@@ -3605,7 +3644,7 @@
       <c r="BF10" s="6"/>
       <c r="BG10" s="6"/>
       <c r="BH10" s="6" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
@@ -3632,7 +3671,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -3657,7 +3696,7 @@
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AK11" s="6"/>
       <c r="AL11" s="6"/>
@@ -3683,7 +3722,7 @@
       <c r="BF11" s="6"/>
       <c r="BG11" s="6"/>
       <c r="BH11" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
@@ -6092,4 +6131,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/excelTemp/planningTempInit-test.xlsx
+++ b/src/main/resources/excelTemp/planningTempInit-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="770"/>
+    <workbookView windowWidth="24045" windowHeight="12525" tabRatio="770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -13,9 +13,6 @@
     <sheet name="月份表" sheetId="21" r:id="rId4"/>
     <sheet name="波段表" sheetId="22" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="产品线">Sheet3!$A$1:$BR$1</definedName>
     <definedName name="大类">Sheet2!$A$1:$I$1</definedName>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="287">
   <si>
     <t>特殊需求</t>
   </si>
@@ -69,6 +66,18 @@
   </si>
   <si>
     <t>小类</t>
+  </si>
+  <si>
+    <t>目标销价</t>
+  </si>
+  <si>
+    <t>目标销价区间</t>
+  </si>
+  <si>
+    <t>企划目标倍率</t>
+  </si>
+  <si>
+    <t>目标成本</t>
   </si>
   <si>
     <t>家居</t>
@@ -1303,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1343,6 +1352,32 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.149876400036622"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.149876400036622"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.149876400036622"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.149876400036622"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.149876400036622"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color theme="0" tint="-0.149876400036622"/>
       </right>
@@ -1476,7 +1511,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1488,34 +1523,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1603,7 +1638,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,6 +1695,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1676,6 +1717,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,27 +1787,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="月份表"/>
-      <sheetName val="波段表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2021,10 +2047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="18.65" customHeight="1" outlineLevelRow="1"/>
@@ -2034,60 +2060,78 @@
     <col min="3" max="3" width="13.7416666666667" style="18" customWidth="1"/>
     <col min="4" max="9" width="14.7166666666667" style="19" customWidth="1"/>
     <col min="10" max="10" width="17.7833333333333" style="19" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="8.58333333333333" style="20"/>
+    <col min="11" max="11" width="15.375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="14.7166666666667" style="21" customWidth="1"/>
+    <col min="13" max="15" width="14.7166666666667" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="8.58333333333333" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="15" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="24"/>
+    <row r="2" s="16" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A2" s="26"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 D1 E$1:E$1048576 F$1:F$1048576 G$1:G$1048576 H$1:H$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 B2:B1048576">
       <formula1>"是,否"</formula1>
@@ -2106,6 +2150,14 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>OFFSET(子产品线,,MATCH($J2,产品线,)-1,COUNTA(OFFSET(子产品线,,MATCH($J2,产品线,)-1,65535)))</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 N$1:N$1048576 O$1:O$1048576">
+      <formula1>0</formula1>
+      <formula2>1000000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>0</formula1>
+      <formula2>10000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2132,250 +2184,250 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -2383,16 +2435,16 @@
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I12" s="13"/>
     </row>
@@ -2400,12 +2452,12 @@
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -2415,12 +2467,12 @@
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -2430,7 +2482,7 @@
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2443,7 +2495,7 @@
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2528,193 +2580,193 @@
   <sheetData>
     <row r="1" ht="15" spans="1:70">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AY1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="BI1" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="BJ1" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="BK1" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BL1" s="5"/>
       <c r="BM1" s="5"/>
@@ -2726,193 +2778,193 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="AJ2" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AN2" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AV2" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AW2" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="BB2" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="BD2" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="BH2" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
@@ -2924,167 +2976,167 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AM3" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AN3" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AP3" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AS3" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AT3" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AU3" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AV3" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AX3" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AY3" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AZ3" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="BA3" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="BB3" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="BE3" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="BF3" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="BK3" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
@@ -3096,140 +3148,140 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AX4" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AY4" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="BD4" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BE4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BF4" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -3243,7 +3295,7 @@
     <row r="5" spans="1:70">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3253,92 +3305,92 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AM5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AR5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AV5" s="7"/>
       <c r="AW5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AX5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AY5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
@@ -3347,15 +3399,15 @@
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
@@ -3369,7 +3421,7 @@
     <row r="6" spans="1:70">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3379,67 +3431,67 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
@@ -3457,11 +3509,11 @@
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
@@ -3483,7 +3535,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -3493,7 +3545,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -3507,18 +3559,18 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
@@ -3526,7 +3578,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
@@ -3545,11 +3597,11 @@
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
@@ -3579,7 +3631,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -3593,7 +3645,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -3602,7 +3654,7 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
@@ -3610,7 +3662,7 @@
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
@@ -3629,7 +3681,7 @@
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="7"/>
@@ -3661,7 +3713,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -3682,7 +3734,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
@@ -3707,7 +3759,7 @@
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
@@ -3739,7 +3791,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -3760,7 +3812,7 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
@@ -3785,7 +3837,7 @@
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
@@ -3817,7 +3869,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -3838,7 +3890,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
@@ -3863,7 +3915,7 @@
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>

--- a/src/main/resources/excelTemp/planningTempInit-test.xlsx
+++ b/src/main/resources/excelTemp/planningTempInit-test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="287">
   <si>
     <t>特殊需求</t>
   </si>
@@ -68,16 +68,16 @@
     <t>小类</t>
   </si>
   <si>
-    <t>目标销价</t>
-  </si>
-  <si>
-    <t>目标销价区间</t>
+    <t>目标销价终止</t>
   </si>
   <si>
     <t>企划目标倍率</t>
   </si>
   <si>
     <t>目标成本</t>
+  </si>
+  <si>
+    <t>款图</t>
   </si>
   <si>
     <t>家居</t>
@@ -2047,10 +2047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="18.65" customHeight="1" outlineLevelRow="1"/>
@@ -2062,11 +2062,11 @@
     <col min="10" max="10" width="17.7833333333333" style="19" customWidth="1"/>
     <col min="11" max="11" width="15.375" style="20" customWidth="1"/>
     <col min="12" max="12" width="14.7166666666667" style="21" customWidth="1"/>
-    <col min="13" max="15" width="14.7166666666667" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="8.58333333333333" style="22"/>
+    <col min="13" max="16" width="14.7166666666667" style="19" customWidth="1"/>
+    <col min="17" max="16384" width="8.58333333333333" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="14.25" spans="1:15">
+    <row r="1" s="15" customFormat="1" ht="14.25" spans="1:16">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2104,16 +2104,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="14.25" spans="1:15">
+    <row r="2" s="16" customFormat="1" ht="14.25" spans="1:16">
       <c r="A2" s="26"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2129,10 +2132,11 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
+      <c r="P2" s="27"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 D1 E$1:E$1048576 F$1:F$1048576 G$1:G$1048576 H$1:H$1048576"/>
+  <dataValidations count="10">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 D1 E$1:E$1048576 F$1:F$1048576 G$1:G$1048576 H$1:H$1048576 P$1:P$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 B2:B1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
@@ -2151,13 +2155,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>OFFSET(子产品线,,MATCH($J2,产品线,)-1,COUNTA(OFFSET(子产品线,,MATCH($J2,产品线,)-1,65535)))</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576 N$1:N$1048576 O$1:O$1048576">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>0</formula1>
-      <formula2>1000000000</formula2>
+      <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576 O$1:O$1048576">
+      <formula1>0</formula1>
+      <formula2>1000000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemp/planningTempInit-test.xlsx
+++ b/src/main/resources/excelTemp/planningTempInit-test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="288">
   <si>
     <t>特殊需求</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>小类</t>
+  </si>
+  <si>
+    <t>目标销价起始</t>
   </si>
   <si>
     <t>目标销价终止</t>
@@ -2104,16 +2107,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" s="16" customFormat="1" ht="14.25" spans="1:16">
@@ -2157,7 +2160,7 @@
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>0</formula1>
-      <formula2>1000000</formula2>
+      <formula2>100000000</formula2>
     </dataValidation>
     <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>0</formula1>
@@ -2192,250 +2195,250 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -2443,16 +2446,16 @@
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" s="13"/>
     </row>
@@ -2460,12 +2463,12 @@
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -2475,12 +2478,12 @@
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -2490,7 +2493,7 @@
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2503,7 +2506,7 @@
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2588,193 +2591,193 @@
   <sheetData>
     <row r="1" ht="15" spans="1:70">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="BL1" s="5"/>
       <c r="BM1" s="5"/>
@@ -2786,193 +2789,193 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN2" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AV2" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AW2" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BB2" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BD2" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BH2" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
@@ -2984,167 +2987,167 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM3" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN3" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP3" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AS3" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AT3" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AU3" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AV3" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AX3" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AY3" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AZ3" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BA3" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BB3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BE3" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BF3" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BK3" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
@@ -3156,140 +3159,140 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AX4" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AY4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BD4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BE4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BF4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -3303,7 +3306,7 @@
     <row r="5" spans="1:70">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3313,92 +3316,92 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AR5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AV5" s="7"/>
       <c r="AW5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AX5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AY5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
@@ -3407,15 +3410,15 @@
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
@@ -3429,7 +3432,7 @@
     <row r="6" spans="1:70">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3439,67 +3442,67 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
@@ -3517,11 +3520,11 @@
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
@@ -3543,7 +3546,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -3553,7 +3556,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -3567,18 +3570,18 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
@@ -3586,7 +3589,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
@@ -3605,11 +3608,11 @@
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
@@ -3639,7 +3642,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -3653,7 +3656,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -3662,7 +3665,7 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
@@ -3670,7 +3673,7 @@
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
@@ -3689,7 +3692,7 @@
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="7"/>
@@ -3721,7 +3724,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -3742,7 +3745,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
@@ -3767,7 +3770,7 @@
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
@@ -3799,7 +3802,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -3820,7 +3823,7 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
@@ -3845,7 +3848,7 @@
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
@@ -3877,7 +3880,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -3898,7 +3901,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
@@ -3923,7 +3926,7 @@
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>

--- a/src/main/resources/excelTemp/planningTempInit-test.xlsx
+++ b/src/main/resources/excelTemp/planningTempInit-test.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525" tabRatio="770"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="20" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="19" r:id="rId3"/>
-    <sheet name="月份表" sheetId="21" r:id="rId4"/>
-    <sheet name="波段表" sheetId="22" r:id="rId5"/>
+    <sheet name="系列" sheetId="23" state="hidden" r:id="rId4"/>
+    <sheet name="月份表" sheetId="21" state="hidden" r:id="rId5"/>
+    <sheet name="波段表" sheetId="22" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="产品线">Sheet3!$A$1:$BR$1</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="289">
   <si>
     <t>特殊需求</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>波段</t>
+  </si>
+  <si>
+    <t>系列</t>
   </si>
   <si>
     <t>旧款号</t>
@@ -1641,7 +1645,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1724,6 +1728,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2050,10 +2060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58333333333333" defaultRowHeight="18.65" customHeight="1" outlineLevelRow="1"/>
@@ -2061,15 +2071,15 @@
     <col min="1" max="1" width="12.3583333333333" style="17" customWidth="1"/>
     <col min="2" max="2" width="14.4416666666667" style="18" customWidth="1"/>
     <col min="3" max="3" width="13.7416666666667" style="18" customWidth="1"/>
-    <col min="4" max="9" width="14.7166666666667" style="19" customWidth="1"/>
-    <col min="10" max="10" width="17.7833333333333" style="19" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="14.7166666666667" style="21" customWidth="1"/>
-    <col min="13" max="16" width="14.7166666666667" style="19" customWidth="1"/>
-    <col min="17" max="16384" width="8.58333333333333" style="22"/>
+    <col min="4" max="10" width="14.7166666666667" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.7833333333333" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="14.7166666666667" style="21" customWidth="1"/>
+    <col min="14" max="17" width="14.7166666666667" style="19" customWidth="1"/>
+    <col min="18" max="16384" width="8.58333333333333" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="14.25" spans="1:16">
+    <row r="1" s="15" customFormat="1" ht="14.25" spans="1:17">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2100,26 +2110,29 @@
       <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="14.25" spans="1:16">
+    <row r="2" s="16" customFormat="1" ht="14.25" spans="1:17">
       <c r="A2" s="26"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2130,16 +2143,17 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="19"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
-      <c r="P2" s="27"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="27"/>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 D1 E$1:E$1048576 F$1:F$1048576 G$1:G$1048576 H$1:H$1048576 P$1:P$1048576"/>
+  <dataValidations count="11">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 B1 C1 D1 E1 F$1:F$1048576 G$1:G$1048576 H$1:H$1048576 I$1:I$1048576 Q$1:Q$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 B2:B1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
@@ -2149,24 +2163,27 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>波段表!$A$1:$A$4000</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>系列!$A$1:$A$4000</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
       <formula1>大类</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
-      <formula1>INDIRECT($I2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+      <formula1>INDIRECT($J2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
-      <formula1>OFFSET(子产品线,,MATCH($J2,产品线,)-1,COUNTA(OFFSET(子产品线,,MATCH($J2,产品线,)-1,65535)))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>OFFSET(子产品线,,MATCH($K2,产品线,)-1,COUNTA(OFFSET(子产品线,,MATCH($K2,产品线,)-1,65535)))</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>0</formula1>
       <formula2>100000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576 O$1:O$1048576">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576 P$1:P$1048576">
       <formula1>0</formula1>
       <formula2>1000000000</formula2>
     </dataValidation>
@@ -2195,250 +2212,250 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -2446,16 +2463,16 @@
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="13"/>
     </row>
@@ -2463,12 +2480,12 @@
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -2478,12 +2495,12 @@
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -2493,7 +2510,7 @@
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2506,7 +2523,7 @@
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2527,7 +2544,7 @@
   <dimension ref="A1:BR44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="16.5"/>
@@ -2591,193 +2608,193 @@
   <sheetData>
     <row r="1" ht="15" spans="1:70">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK1" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="BL1" s="5"/>
       <c r="BM1" s="5"/>
@@ -2789,193 +2806,193 @@
     </row>
     <row r="2" spans="1:70">
       <c r="A2" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ2" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AK2" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN2" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AV2" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AW2" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BB2" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BC2" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BD2" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BH2" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BI2" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
@@ -2987,167 +3004,167 @@
     </row>
     <row r="3" spans="1:70">
       <c r="A3" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL3" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM3" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN3" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP3" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AS3" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AT3" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AU3" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AV3" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AX3" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AY3" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AZ3" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BA3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BB3" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BC3" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BD3" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BE3" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BF3" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BK3" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
@@ -3159,140 +3176,140 @@
     </row>
     <row r="4" spans="1:70">
       <c r="A4" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AX4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AY4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AZ4" s="7"/>
       <c r="BA4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BB4" s="7"/>
       <c r="BC4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BD4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BE4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BF4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -3306,7 +3323,7 @@
     <row r="5" spans="1:70">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3316,92 +3333,92 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO5" s="7"/>
       <c r="AP5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AR5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AV5" s="7"/>
       <c r="AW5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AX5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AY5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
@@ -3410,15 +3427,15 @@
       <c r="BD5" s="7"/>
       <c r="BE5" s="7"/>
       <c r="BF5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BG5" s="7"/>
       <c r="BH5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BK5" s="7"/>
       <c r="BL5" s="7"/>
@@ -3432,7 +3449,7 @@
     <row r="6" spans="1:70">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3442,67 +3459,67 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG6" s="7"/>
       <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL6" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
@@ -3520,11 +3537,11 @@
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BI6" s="7"/>
       <c r="BJ6" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
@@ -3546,7 +3563,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -3556,7 +3573,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -3570,18 +3587,18 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG7" s="7"/>
       <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
@@ -3589,7 +3606,7 @@
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
       <c r="AQ7" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
@@ -3608,11 +3625,11 @@
       <c r="BF7" s="7"/>
       <c r="BG7" s="7"/>
       <c r="BH7" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
@@ -3642,7 +3659,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -3656,7 +3673,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="7"/>
@@ -3665,7 +3682,7 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
@@ -3673,7 +3690,7 @@
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
@@ -3692,7 +3709,7 @@
       <c r="BF8" s="7"/>
       <c r="BG8" s="7"/>
       <c r="BH8" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="7"/>
@@ -3724,7 +3741,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -3745,7 +3762,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
@@ -3770,7 +3787,7 @@
       <c r="BF9" s="7"/>
       <c r="BG9" s="7"/>
       <c r="BH9" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
@@ -3802,7 +3819,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -3823,7 +3840,7 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
@@ -3848,7 +3865,7 @@
       <c r="BF10" s="7"/>
       <c r="BG10" s="7"/>
       <c r="BH10" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
@@ -3880,7 +3897,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -3901,7 +3918,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
@@ -3926,7 +3943,7 @@
       <c r="BF11" s="7"/>
       <c r="BG11" s="7"/>
       <c r="BH11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>
@@ -6327,7 +6344,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6343,6 +6360,22 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
